--- a/src/Perfil variable.xlsx
+++ b/src/Perfil variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Diego Toffaletti\Desktop\ONV2\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F299D7-779B-4B4B-AA79-EC11D32080B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D8AD85-87FA-413F-9298-73F30C2AD5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="387">
   <si>
     <t>Apellido y nombre</t>
   </si>
@@ -1179,6 +1179,12 @@
   </si>
   <si>
     <t>Cabd</t>
+  </si>
+  <si>
+    <t>56.95</t>
+  </si>
+  <si>
+    <t>97.05</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F530"/>
+  <dimension ref="A1:F534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" workbookViewId="0">
-      <selection activeCell="A530" sqref="A530"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="F534" sqref="F534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10057,12 +10063,6 @@
       <c r="B425" s="2">
         <v>44823</v>
       </c>
-      <c r="C425">
-        <v>0</v>
-      </c>
-      <c r="D425">
-        <v>0</v>
-      </c>
       <c r="E425">
         <v>85</v>
       </c>
@@ -10423,8 +10423,8 @@
       <c r="D443" t="s">
         <v>47</v>
       </c>
-      <c r="E443">
-        <v>0</v>
+      <c r="E443" t="s">
+        <v>113</v>
       </c>
       <c r="F443" t="s">
         <v>117</v>
@@ -10484,7 +10484,7 @@
         <v>107</v>
       </c>
       <c r="E446">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F446" t="s">
         <v>298</v>
@@ -10544,7 +10544,7 @@
         <v>106</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F449" t="s">
         <v>301</v>
@@ -10563,8 +10563,8 @@
       <c r="D450" t="s">
         <v>54</v>
       </c>
-      <c r="E450">
-        <v>0</v>
+      <c r="E450" t="s">
+        <v>167</v>
       </c>
       <c r="F450" t="s">
         <v>302</v>
@@ -10604,7 +10604,7 @@
         <v>95</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F452" t="s">
         <v>37</v>
@@ -10624,7 +10624,7 @@
         <v>115</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F453" t="s">
         <v>299</v>
@@ -10644,7 +10644,7 @@
         <v>101</v>
       </c>
       <c r="E454">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F454" t="s">
         <v>306</v>
@@ -10664,7 +10664,7 @@
         <v>89</v>
       </c>
       <c r="E455">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F455" t="s">
         <v>308</v>
@@ -10684,7 +10684,7 @@
         <v>96</v>
       </c>
       <c r="E456">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F456" t="s">
         <v>310</v>
@@ -10704,7 +10704,7 @@
         <v>93</v>
       </c>
       <c r="E457">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F457" t="s">
         <v>312</v>
@@ -10724,7 +10724,7 @@
         <v>104</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F458" t="s">
         <v>314</v>
@@ -10744,7 +10744,7 @@
         <v>93</v>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F459" t="s">
         <v>316</v>
@@ -10763,8 +10763,8 @@
       <c r="D460">
         <v>97</v>
       </c>
-      <c r="E460">
-        <v>0</v>
+      <c r="E460" t="s">
+        <v>167</v>
       </c>
       <c r="F460" t="s">
         <v>318</v>
@@ -11064,7 +11064,7 @@
         <v>103</v>
       </c>
       <c r="E475">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F475" t="s">
         <v>44</v>
@@ -11104,7 +11104,7 @@
         <v>63</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F477" t="s">
         <v>265</v>
@@ -11124,7 +11124,7 @@
         <v>341</v>
       </c>
       <c r="E478">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F478" t="s">
         <v>342</v>
@@ -11284,7 +11284,7 @@
         <v>104</v>
       </c>
       <c r="E486">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F486" t="s">
         <v>348</v>
@@ -11504,7 +11504,7 @@
         <v>99</v>
       </c>
       <c r="E497">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F497" t="s">
         <v>143</v>
@@ -11623,8 +11623,8 @@
       <c r="D503" t="s">
         <v>237</v>
       </c>
-      <c r="E503">
-        <v>0</v>
+      <c r="E503" t="s">
+        <v>160</v>
       </c>
       <c r="F503" t="s">
         <v>363</v>
@@ -11797,12 +11797,6 @@
       <c r="B512" s="2">
         <v>45149</v>
       </c>
-      <c r="C512">
-        <v>0</v>
-      </c>
-      <c r="D512">
-        <v>0</v>
-      </c>
       <c r="E512" t="s">
         <v>57</v>
       </c>
@@ -12083,8 +12077,8 @@
       <c r="D526" t="s">
         <v>48</v>
       </c>
-      <c r="E526">
-        <v>0</v>
+      <c r="E526" t="s">
+        <v>187</v>
       </c>
       <c r="F526" t="s">
         <v>381</v>
@@ -12143,8 +12137,8 @@
       <c r="D529" t="s">
         <v>47</v>
       </c>
-      <c r="E529">
-        <v>0</v>
+      <c r="E529" t="s">
+        <v>170</v>
       </c>
       <c r="F529" t="s">
         <v>378</v>
@@ -12168,6 +12162,80 @@
       </c>
       <c r="F530" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>373</v>
+      </c>
+      <c r="B531" s="2">
+        <v>45230</v>
+      </c>
+      <c r="C531" t="s">
+        <v>38</v>
+      </c>
+      <c r="D531">
+        <v>100</v>
+      </c>
+      <c r="E531">
+        <v>78</v>
+      </c>
+      <c r="F531" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B532" s="2">
+        <v>45230</v>
+      </c>
+      <c r="E532">
+        <v>85</v>
+      </c>
+      <c r="F532" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>370</v>
+      </c>
+      <c r="B533" s="2">
+        <v>45234</v>
+      </c>
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533">
+        <v>0</v>
+      </c>
+      <c r="E533">
+        <v>84</v>
+      </c>
+      <c r="F533" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>17</v>
+      </c>
+      <c r="B534" s="2">
+        <v>45234</v>
+      </c>
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>103</v>
+      </c>
+      <c r="F534" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
